--- a/ClientConfig/UnitConfig.xlsx
+++ b/ClientConfig/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>cs</t>
   </si>
@@ -47,13 +47,13 @@
     <t>#描述</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
+    <t>初始位置</t>
+  </si>
+  <si>
+    <t>初始角度</t>
+  </si>
+  <si>
+    <t>资源名</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,10 +65,10 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Weight</t>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>Prefab</t>
   </si>
   <si>
     <t>int</t>
@@ -77,34 +77,22 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>测试说明</t>
   </si>
   <si>
-    <t>米克尔</t>
+    <t>玩家1</t>
   </si>
   <si>
     <t>带有强力攻击技能</t>
   </si>
   <si>
-    <t>测试说明2</t>
-  </si>
-  <si>
-    <t>米克尔2</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-  </si>
-  <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-  </si>
-  <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>Player001</t>
   </si>
 </sst>
 </file>
@@ -1102,23 +1090,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1192,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:10">
@@ -1209,100 +1197,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>178</v>
-      </c>
-      <c r="J6" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
-      <c r="C7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>278</v>
-      </c>
-      <c r="J7" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:10">
-      <c r="C8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>178</v>
-      </c>
-      <c r="J8" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:10">
-      <c r="C9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>278</v>
-      </c>
-      <c r="J9" s="1">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
